--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_0_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_0_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.30000000000052</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1772566721629864</v>
+        <v>0.5194690326159898</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1772566721629864</v>
+        <v>0.5194690326159898</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.436602666566136</v>
+        <v>3.33169892206371</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.472297050034479, 13.345502383166751]</t>
+          <t>[-4.751099215382242, 11.414497059509662]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1730323355323211</v>
+        <v>0.4108053593198946</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1730323355323211</v>
+        <v>0.4108053593198946</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.012631930227695</v>
+        <v>-2.239053022378311</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.100764048170814, 1.0755001877154244]</t>
+          <t>[-5.3649219890132, 0.8868159442565782]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1959551039843963</v>
+        <v>0.1560305338093926</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1959551039843963</v>
+        <v>0.1560305338093926</v>
       </c>
       <c r="T2" t="n">
-        <v>12.42413488014384</v>
+        <v>11.04517346409555</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.306535233378028, 16.541734526909643]</t>
+          <t>[6.941910077527757, 15.148436850663336]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.397941671894444e-07</v>
+        <v>2.234270654266624e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.397941671894444e-07</v>
+        <v>2.234270654266624e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>8.104104104104266</v>
+        <v>8.962362362362537</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.33063063063072</v>
+        <v>-3.549699699699771</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.53883883883925</v>
+        <v>21.47442442442485</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.30000000000052</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1994459471227625</v>
+        <v>0.2735214695801116</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1994459471227625</v>
+        <v>0.2735214695801116</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.881278598293862</v>
+        <v>4.731129689343151</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.7258437951373633, 14.488400991725088]</t>
+          <t>[-2.7663521438115612, 12.228611522497863]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1755563581466391</v>
+        <v>0.2102745747590866</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1755563581466391</v>
+        <v>0.2102745747590866</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.811368737204925</v>
+        <v>-1.924579283280234</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.918369279493931, 1.2956318050840805]</t>
+          <t>[-4.987553502095508, 1.1383949355350413]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2464860911442057</v>
+        <v>0.2121930280103734</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2464860911442057</v>
+        <v>0.2121930280103734</v>
       </c>
       <c r="T3" t="n">
-        <v>11.73286574877418</v>
+        <v>11.17140655081738</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.068340396839108, 16.397391100709257]</t>
+          <t>[6.999150012216258, 15.343663089418502]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.378072153452209e-06</v>
+        <v>2.461931837505205e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>7.378072153452209e-06</v>
+        <v>2.461931837505205e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>7.293693693693843</v>
+        <v>7.703603603603753</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.217017017017129</v>
+        <v>-4.556706706706802</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.80440440440481</v>
+        <v>19.96391391391431</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.30000000000052</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4210090333069496</v>
+        <v>0.317806732551001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4210090333069496</v>
+        <v>0.317806732551001</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3.709104708722701</v>
+        <v>4.532541597450292</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-3.8219299619353166, 11.24013937938072]</t>
+          <t>[-2.8861274541232564, 11.95121064902384]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.3265189230749788</v>
+        <v>0.22488673179285</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3265189230749788</v>
+        <v>0.22488673179285</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.201316173686542</v>
+        <v>-2.956053147521927</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.339764089885355, 0.9371317425122712]</t>
+          <t>[-6.075632639374855, 0.16352634433100022]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1646238855839515</v>
+        <v>0.06271437702969251</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1646238855839515</v>
+        <v>0.06271437702969251</v>
       </c>
       <c r="T4" t="n">
-        <v>9.911864038447716</v>
+        <v>10.59597601374022</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.9461584310163005, 13.877569645879131]</t>
+          <t>[6.488361797187636, 14.703590230292804]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.212665387974383e-06</v>
+        <v>4.783921115691925e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>8.212665387974383e-06</v>
+        <v>4.783921115691925e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>8.863863863864047</v>
+        <v>11.83233233233256</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.773473473473549</v>
+        <v>-0.6545545545545668</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.50120120120165</v>
+        <v>24.3192192192197</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.30000000000052</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3668795557347809</v>
+        <v>0.4496615052201114</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3668795557347809</v>
+        <v>0.4496615052201114</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.176818232320448</v>
+        <v>3.709071502080785</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.805937221130918, 12.159573685771814]</t>
+          <t>[-3.743302967994938, 11.161445972156509]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2975820899872725</v>
+        <v>0.3214979732991758</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2975820899872725</v>
+        <v>0.3214979732991758</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.553526761476388</v>
+        <v>2.987500521431735</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.685685202893239, 0.5786316799404627]</t>
+          <t>[-0.09434212172942313, 6.069343164592894]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.107557078832887</v>
+        <v>0.05712290205369719</v>
       </c>
       <c r="S5" t="n">
-        <v>0.107557078832887</v>
+        <v>0.05712290205369719</v>
       </c>
       <c r="T5" t="n">
-        <v>10.58095938536519</v>
+        <v>11.22971247206092</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.5130100460891605, 14.648908724641228]</t>
+          <t>[7.163496094687764, 15.295928849434086]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.137469151510587e-06</v>
+        <v>1.386843713202524e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>4.137469151510587e-06</v>
+        <v>1.386843713202524e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>10.28208208208229</v>
+        <v>13.19179179179205</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.32992992992998</v>
+        <v>0.8559559559559737</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.89409409409456</v>
+        <v>25.52762762762813</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.30000000000052</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1937963574606691</v>
+        <v>0.3442461142271227</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1937963574606691</v>
+        <v>0.3442461142271227</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.106122385547309</v>
+        <v>4.310980175208291</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.4661563067273846, 14.678401077822002]</t>
+          <t>[-3.42869751494376, 12.050657865360343]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1582958164259731</v>
+        <v>0.2678767434759077</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1582958164259731</v>
+        <v>0.2678767434759077</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.629000458859927</v>
+        <v>-2.704474156243465</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.7422904759308935, 0.4842895582110396]</t>
+          <t>[-5.798895748968547, 0.38994743648161645]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.09588264994104545</v>
+        <v>0.0851537407081111</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09588264994104545</v>
+        <v>0.0851537407081111</v>
       </c>
       <c r="T6" t="n">
-        <v>11.03774916966325</v>
+        <v>10.42426327317792</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.434078643930152, 15.641419695396348]</t>
+          <t>[6.360824842374695, 14.487701703981154]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.621945833285565e-05</v>
+        <v>5.266084393218406e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.621945833285565e-05</v>
+        <v>5.266084393218406e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5859859859862</v>
+        <v>10.82532532532553</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.950050050050089</v>
+        <v>-1.560860860860894</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.12202202202249</v>
+        <v>23.21151151151197</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.30000000000052</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4165507776458635</v>
+        <v>0.4197457662377609</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4165507776458635</v>
+        <v>0.4197457662377609</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3.789444543700525</v>
+        <v>4.226882212249629</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-3.2996569823881146, 10.878546069789165]</t>
+          <t>[-4.095982394972248, 12.549746819471506]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.2873842107784466</v>
+        <v>0.3118273587120888</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2873842107784466</v>
+        <v>0.3118273587120888</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.993789996213697</v>
+        <v>2.635289933641888</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-6.050474740247009, 0.06289474781961513]</t>
+          <t>[-0.49057903299300065, 5.761158900276778]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.05469704032070011</v>
+        <v>0.09641241402637934</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05469704032070011</v>
+        <v>0.09641241402637934</v>
       </c>
       <c r="T7" t="n">
-        <v>10.79613246694201</v>
+        <v>12.01320100440797</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.866158406503562, 14.726106527380463]</t>
+          <t>[7.503137859235849, 16.523264149580093]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.532136186144228e-06</v>
+        <v>2.706033358723658e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.532136186144228e-06</v>
+        <v>2.706033358723658e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>12.0548548548551</v>
+        <v>14.60160160160189</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.2532532532532574</v>
+        <v>2.089539539539579</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.36296296296346</v>
+        <v>27.11366366366419</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.30000000000052</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3368664383225748</v>
+        <v>0.2316990785006248</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3368664383225748</v>
+        <v>0.2316990785006248</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.061941340354426</v>
+        <v>4.77346801156221</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-4.054133642520584, 14.178016323229436]</t>
+          <t>[-2.320856288619762, 11.867792311744182]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2693378917094098</v>
+        <v>0.1821164331955174</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2693378917094098</v>
+        <v>0.1821164331955174</v>
       </c>
       <c r="P8" t="n">
-        <v>2.647868883205811</v>
+        <v>2.886868924920351</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.4654211338651546, 5.761158900276777]</t>
+          <t>[-0.19497371824080734, 5.968711568081509]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0935945043467179</v>
+        <v>0.06566536260877576</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0935945043467179</v>
+        <v>0.06566536260877576</v>
       </c>
       <c r="T8" t="n">
-        <v>12.21088011913578</v>
+        <v>10.60869251232044</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.395452073860452, 17.026308164411102]</t>
+          <t>[6.754676257495987, 14.462708767144889]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.429559533671636e-06</v>
+        <v>1.475576598242156e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>6.429559533671636e-06</v>
+        <v>1.475576598242156e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>14.63803803803834</v>
+        <v>13.59459459459486</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.102002002002049</v>
+        <v>1.258758758758782</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.17407407407463</v>
+        <v>25.93043043043094</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.06000000000032</v>
+        <v>23.77000000000028</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3808623202826086</v>
+        <v>0.1237440093088056</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3808623202826086</v>
+        <v>0.1237440093088056</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.194672320877518</v>
+        <v>6.333125706043914</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.983051972457859, 12.372396614212896]</t>
+          <t>[-1.3563539165579126, 14.02260532864574]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3070720745737145</v>
+        <v>0.1041043308499634</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3070720745737145</v>
+        <v>0.1041043308499634</v>
       </c>
       <c r="P9" t="n">
-        <v>2.207605648468504</v>
+        <v>1.314500229429964</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.9308422677303092, 5.346053564667317]</t>
+          <t>[-0.4842895582110387, 3.113290017070966]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1634467022732435</v>
+        <v>0.1480223613868901</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1634467022732435</v>
+        <v>0.1480223613868901</v>
       </c>
       <c r="T9" t="n">
-        <v>10.89026155748539</v>
+        <v>12.87854896025435</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.639175416615155, 15.141347698355629]</t>
+          <t>[8.585946401331457, 17.171151519177236]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.396375946764564e-06</v>
+        <v>2.698667567191393e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>5.396375946764564e-06</v>
+        <v>2.698667567191393e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>15.60648648648669</v>
+        <v>18.79709709709731</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.58852852852857</v>
+        <v>11.99207207207221</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.62444444444482</v>
+        <v>25.60212212212242</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.06000000000032</v>
+        <v>23.77000000000028</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1761091914890491</v>
+        <v>0.2849462290123931</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1761091914890491</v>
+        <v>0.2849462290123931</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.414622080242124</v>
+        <v>4.338477937518284</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.460056410387189, 13.289300570871436]</t>
+          <t>[-2.9935577125865294, 11.670513587623098]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1729123839314588</v>
+        <v>0.2395966435668619</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1729123839314588</v>
+        <v>0.2395966435668619</v>
       </c>
       <c r="P10" t="n">
-        <v>2.383710942363427</v>
+        <v>2.849132076228581</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.723289599925578, 5.490711484652431]</t>
+          <t>[-0.2515789912784623, 5.949843143735625]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1292941735744406</v>
+        <v>0.07078551350211892</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1292941735744406</v>
+        <v>0.07078551350211892</v>
       </c>
       <c r="T10" t="n">
-        <v>12.21998557946605</v>
+        <v>8.956006847301119</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.161750707911349, 16.278220451020747]</t>
+          <t>[5.100313843024338, 12.811699851577899]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.502008698002101e-07</v>
+        <v>2.662266564268378e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>2.502008698002101e-07</v>
+        <v>2.662266564268378e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>14.93213213213233</v>
+        <v>12.99141141141156</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.034594594594635</v>
+        <v>1.261071071071086</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.82966966967003</v>
+        <v>24.72175175175204</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.06000000000032</v>
+        <v>23.77000000000028</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1939528062462561</v>
+        <v>0.07881951767834727</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1939528062462561</v>
+        <v>0.07881951767834727</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.473990464385476</v>
+        <v>6.133429961160727</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.6387431868991182, 10.586724115670071]</t>
+          <t>[-0.9062926975631225, 13.173152619884577]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1474034096096173</v>
+        <v>0.08609907985371601</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1474034096096173</v>
+        <v>0.08609907985371601</v>
       </c>
       <c r="P11" t="n">
-        <v>1.679289766783733</v>
+        <v>2.006342455445734</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.4151318259413488, 4.773711359508815]</t>
+          <t>[0.19497371824080822, 3.817711192650659]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.2802021591689761</v>
+        <v>0.03071641546777859</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2802021591689761</v>
+        <v>0.03071641546777859</v>
       </c>
       <c r="T11" t="n">
-        <v>9.228720735944449</v>
+        <v>10.6480182230082</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.7742377437179915, 12.683203728170907]</t>
+          <t>[6.900402941392731, 14.395633504623671]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.564928696990876e-06</v>
+        <v>8.044008066310226e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>2.564928696990876e-06</v>
+        <v>8.044008066310226e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>17.62954954954979</v>
+        <v>16.17977977977997</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.780180180180256</v>
+        <v>9.327167167167278</v>
       </c>
       <c r="Z11" t="n">
-        <v>29.47891891891932</v>
+        <v>23.03239239239266</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.06000000000032</v>
+        <v>23.77000000000028</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2696002001349399</v>
+        <v>0.05755932982514989</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2696002001349399</v>
+        <v>0.05755932982514989</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.979387741123028</v>
+        <v>6.709761425939946</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.715091873008051, 12.673867355254107]</t>
+          <t>[-0.13069300411091334, 13.550215855990805]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1990669068264799</v>
+        <v>0.05434922727349001</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1990669068264799</v>
+        <v>0.05434922727349001</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66671081721981</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.3082107546480017, 4.641632389087622]</t>
+          <t>[0.2956053147521933, 3.213921613582351]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.265127470860024</v>
+        <v>0.01952032522537084</v>
       </c>
       <c r="S12" t="n">
-        <v>0.265127470860024</v>
+        <v>0.01952032522537084</v>
       </c>
       <c r="T12" t="n">
-        <v>10.97890144189656</v>
+        <v>12.71787502585404</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.658458092751115, 15.299344791042007]</t>
+          <t>[8.867043569889656, 16.56870648181842]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.201126378391209e-06</v>
+        <v>3.351567645637488e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>6.201126378391209e-06</v>
+        <v>3.351567645637488e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>17.67771771771795</v>
+        <v>17.13153153153173</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.285945945946031</v>
+        <v>11.6113713713715</v>
       </c>
       <c r="Z12" t="n">
-        <v>29.06948948948988</v>
+        <v>22.65169169169195</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.06000000000032</v>
+        <v>23.77000000000028</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05239034600625581</v>
+        <v>0.1204065632322225</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05239034600625581</v>
+        <v>0.1204065632322225</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.905092072324431</v>
+        <v>5.492722245221623</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.629864536836994, 14.440048681485855]</t>
+          <t>[-1.7969828057589012, 12.782427296202147]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.07151510234974245</v>
+        <v>0.13610799402365</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07151510234974245</v>
+        <v>0.13610799402365</v>
       </c>
       <c r="P13" t="n">
-        <v>2.421447791055197</v>
+        <v>2.446605690183042</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.0503157982556921, 4.893211380366085]</t>
+          <t>[-0.5786316799404627, 5.471843060306547]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.05464489756444091</v>
+        <v>0.1103223997231608</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05464489756444091</v>
+        <v>0.1103223997231608</v>
       </c>
       <c r="T13" t="n">
-        <v>11.13376528818783</v>
+        <v>11.47679023792635</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.218571170182056, 15.048959406193603]</t>
+          <t>[7.765563218020004, 15.1880172578327]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>7.909769679237399e-07</v>
+        <v>1.428679019532808e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>7.909769679237399e-07</v>
+        <v>1.428679019532808e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>14.78762762762782</v>
+        <v>14.51421421421438</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.322582582582649</v>
+        <v>3.069399399399432</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.25267267267299</v>
+        <v>25.95902902902933</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.06000000000032</v>
+        <v>23.77000000000028</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09607238121622708</v>
+        <v>0.1433140936089161</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09607238121622708</v>
+        <v>0.1433140936089161</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.632684622438751</v>
+        <v>5.174968526775837</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.2697989064557813, 14.535168151333282]</t>
+          <t>[-1.9780093322977645, 12.327946385849438]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.09785465139896354</v>
+        <v>0.1520198100407577</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09785465139896354</v>
+        <v>0.1520198100407577</v>
       </c>
       <c r="P14" t="n">
-        <v>2.484342538874811</v>
+        <v>2.320816194543811</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.5094474573388856, 5.478132535088508]</t>
+          <t>[-0.798763297309117, 5.440395686396739]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1015902375353366</v>
+        <v>0.1410133093895243</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1015902375353366</v>
+        <v>0.1410133093895243</v>
       </c>
       <c r="T14" t="n">
-        <v>12.09175406607055</v>
+        <v>9.428542081932104</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.841852653052203, 16.341655479088892]</t>
+          <t>[5.772815096185443, 13.084269067678765]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>7.831404518210405e-07</v>
+        <v>4.7994116159078e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>7.831404518210405e-07</v>
+        <v>4.7994116159078e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>14.54678678678698</v>
+        <v>14.99009009009026</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.082762762762803</v>
+        <v>3.188368368368405</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.01081081081116</v>
+        <v>26.79181181181212</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_0_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_0_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.15000000000049</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5194690326159898</v>
+        <v>0.1099727315748938</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5194690326159898</v>
+        <v>0.1099727315748938</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.33169892206371</v>
+        <v>5.862224576642994</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.751099215382242, 11.414497059509662]</t>
+          <t>[-1.7374674401546297, 13.461916593440618]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.4108053593198946</v>
+        <v>0.1272777148767616</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4108053593198946</v>
+        <v>0.1272777148767616</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.239053022378311</v>
+        <v>-1.044052813805617</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.3649219890132, 0.8868159442565782]</t>
+          <t>[-3.635316423973775, 1.5472107963625406]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1560305338093926</v>
+        <v>0.4213459862281261</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1560305338093926</v>
+        <v>0.4213459862281261</v>
       </c>
       <c r="T2" t="n">
-        <v>11.04517346409555</v>
+        <v>12.18916776689775</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.941910077527757, 15.148436850663336]</t>
+          <t>[8.154862858207265, 16.223472675588226]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.234270654266624e-06</v>
+        <v>2.331872814842484e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>2.234270654266624e-06</v>
+        <v>2.331872814842484e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>8.962362362362537</v>
+        <v>4.307027027027129</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.549699699699771</v>
+        <v>-6.382702702702854</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.47442442442485</v>
+        <v>14.99675675675711</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.15000000000049</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2735214695801116</v>
+        <v>0.08681242439838721</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2735214695801116</v>
+        <v>0.08681242439838721</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.731129689343151</v>
+        <v>6.12293815596136</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.7663521438115612, 12.228611522497863]</t>
+          <t>[-0.5965096364160853, 12.842385948338805]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2102745747590866</v>
+        <v>0.07307491135677746</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2102745747590866</v>
+        <v>0.07307491135677746</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.924579283280234</v>
+        <v>-1.622684493746079</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.987553502095508, 1.1383949355350413]</t>
+          <t>[-3.081842643161158, -0.16352634433100022]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2121930280103734</v>
+        <v>0.03008801686377449</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2121930280103734</v>
+        <v>0.03008801686377449</v>
       </c>
       <c r="T3" t="n">
-        <v>11.17140655081738</v>
+        <v>11.33460633193683</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.999150012216258, 15.343663089418502]</t>
+          <t>[7.365721859220864, 15.303490804652801]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.461931837505205e-06</v>
+        <v>7.278111759934092e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.461931837505205e-06</v>
+        <v>7.278111759934092e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>7.703603603603753</v>
+        <v>6.69405405405421</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.556706706706802</v>
+        <v>0.6745945945946081</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.96391391391431</v>
+        <v>12.71351351351381</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.15000000000049</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.317806732551001</v>
+        <v>0.1576087781478844</v>
       </c>
       <c r="I4" t="n">
-        <v>0.317806732551001</v>
+        <v>0.1576087781478844</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.532541597450292</v>
+        <v>6.279345130610455</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.8861274541232564, 11.95121064902384]</t>
+          <t>[-2.210520692151558, 14.769210953372468]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.22488673179285</v>
+        <v>0.143282361866188</v>
       </c>
       <c r="O4" t="n">
-        <v>0.22488673179285</v>
+        <v>0.143282361866188</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.956053147521927</v>
+        <v>-2.327105669325773</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-6.075632639374855, 0.16352634433100022]</t>
+          <t>[-5.465553585524584, 0.8113422468730391]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.06271437702969251</v>
+        <v>0.142305438829383</v>
       </c>
       <c r="S4" t="n">
-        <v>0.06271437702969251</v>
+        <v>0.142305438829383</v>
       </c>
       <c r="T4" t="n">
-        <v>10.59597601374022</v>
+        <v>13.17094559991201</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.488361797187636, 14.703590230292804]</t>
+          <t>[8.704020924673916, 17.63787027515011]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.783921115691925e-06</v>
+        <v>3.850138348138188e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>4.783921115691925e-06</v>
+        <v>3.850138348138188e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>11.83233233233256</v>
+        <v>9.600000000000225</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.6545545545545668</v>
+        <v>-3.347027027027105</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.3192192192197</v>
+        <v>22.54702702702755</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.15000000000049</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4496615052201114</v>
+        <v>0.4300478898738782</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4496615052201114</v>
+        <v>0.4300478898738782</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.709071502080785</v>
+        <v>3.850978015498392</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.743302967994938, 11.161445972156509]</t>
+          <t>[-4.06935799358388, 11.771314024580665]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3214979732991758</v>
+        <v>0.3326747503587277</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3214979732991758</v>
+        <v>0.3326747503587277</v>
       </c>
       <c r="P5" t="n">
-        <v>2.987500521431735</v>
+        <v>-2.515789912784619</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.09434212172942313, 6.069343164592894]</t>
+          <t>[-5.641658879419509, 0.6100790538502707]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.05712290205369719</v>
+        <v>0.1120029023203168</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05712290205369719</v>
+        <v>0.1120029023203168</v>
       </c>
       <c r="T5" t="n">
-        <v>11.22971247206092</v>
+        <v>10.58576921799326</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.163496094687764, 15.295928849434086]</t>
+          <t>[6.531540101104178, 14.63999833488235]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.386843713202524e-06</v>
+        <v>3.866844519251345e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.386843713202524e-06</v>
+        <v>3.866844519251345e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>13.19179179179205</v>
+        <v>10.37837837837863</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8559559559559737</v>
+        <v>-2.516756756756816</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.52762762762813</v>
+        <v>23.27351351351407</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.15000000000049</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3442461142271227</v>
+        <v>0.1886459427654159</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3442461142271227</v>
+        <v>0.1886459427654159</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.310980175208291</v>
+        <v>5.812690791988745</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.42869751494376, 12.050657865360343]</t>
+          <t>[-1.8641140464381376, 13.489495630415627]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2678767434759077</v>
+        <v>0.1342495834251745</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2678767434759077</v>
+        <v>0.1342495834251745</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.704474156243465</v>
+        <v>3.062974218815274</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.798895748968547, 0.38994743648161645]</t>
+          <t>[-0.018868424345884094, 6.144816861976432]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0851537407081111</v>
+        <v>0.05135968059784402</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0851537407081111</v>
+        <v>0.05135968059784402</v>
       </c>
       <c r="T6" t="n">
-        <v>10.42426327317792</v>
+        <v>10.96647316456637</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.360824842374695, 14.487701703981154]</t>
+          <t>[6.644694238210384, 15.288252090922352]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.266084393218406e-06</v>
+        <v>6.356013231290092e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>5.266084393218406e-06</v>
+        <v>6.356013231290092e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>10.82532532532553</v>
+        <v>13.28432432432464</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.560860860860894</v>
+        <v>0.5708108108108245</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.21151151151197</v>
+        <v>25.99783783783845</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.15000000000049</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4197457662377609</v>
+        <v>0.1068046449322522</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4197457662377609</v>
+        <v>0.1068046449322522</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.226882212249629</v>
+        <v>7.184006775814875</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.095982394972248, 12.549746819471506]</t>
+          <t>[-0.9129101992448954, 15.280923750874646]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.3118273587120888</v>
+        <v>0.08067158552509945</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3118273587120888</v>
+        <v>0.08067158552509945</v>
       </c>
       <c r="P7" t="n">
-        <v>2.635289933641888</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.49057903299300065, 5.761158900276778]</t>
+          <t>[1.3396581285578097, 4.610185015177814]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.09641241402637934</v>
+        <v>0.0006516659287560955</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09641241402637934</v>
+        <v>0.0006516659287560955</v>
       </c>
       <c r="T7" t="n">
-        <v>12.01320100440797</v>
+        <v>12.25937419300725</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.503137859235849, 16.523264149580093]</t>
+          <t>[7.647567650844792, 16.87118073516971]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.706033358723658e-06</v>
+        <v>2.806906788777042e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>2.706033358723658e-06</v>
+        <v>2.806906788777042e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>14.60160160160189</v>
+        <v>13.64756756756789</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.089539539539579</v>
+        <v>6.901621621621787</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.11366366366419</v>
+        <v>20.39351351351399</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.15000000000049</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2316990785006248</v>
+        <v>0.6135698549445372</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2316990785006248</v>
+        <v>0.6135698549445372</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.77346801156221</v>
+        <v>2.81993145019704</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.320856288619762, 11.867792311744182]</t>
+          <t>[-4.733647773590848, 10.373510673984928]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1821164331955174</v>
+        <v>0.4560184215004939</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1821164331955174</v>
+        <v>0.4560184215004939</v>
       </c>
       <c r="P8" t="n">
-        <v>2.886868924920351</v>
+        <v>2.786237328408966</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.19497371824080734, 5.968711568081509]</t>
+          <t>[-0.3333421634439624, 5.905816820261894]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.06566536260877576</v>
+        <v>0.07874530897157328</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06566536260877576</v>
+        <v>0.07874530897157328</v>
       </c>
       <c r="T8" t="n">
-        <v>10.60869251232044</v>
+        <v>11.30069066382392</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.754676257495987, 14.462708767144889]</t>
+          <t>[7.291436231188541, 15.309945096459295]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.475576598242156e-06</v>
+        <v>9.393380948630181e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.475576598242156e-06</v>
+        <v>9.393380948630181e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>13.59459459459486</v>
+        <v>14.42594594594629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.258758758758782</v>
+        <v>1.556756756756792</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.93043043043094</v>
+        <v>27.29513513513578</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.77000000000028</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1237440093088056</v>
+        <v>0.245673130772351</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1237440093088056</v>
+        <v>0.245673130772351</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.333125706043914</v>
+        <v>4.53037201300995</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.3563539165579126, 14.02260532864574]</t>
+          <t>[-2.3939396724897755, 11.454683698509676]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1041043308499634</v>
+        <v>0.1942508235709783</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1041043308499634</v>
+        <v>0.1942508235709783</v>
       </c>
       <c r="P9" t="n">
-        <v>1.314500229429964</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.4842895582110387, 3.113290017070966]</t>
+          <t>[-1.2704739059562327, 4.805158733418623]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1480223613868901</v>
+        <v>0.2474577095216186</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1480223613868901</v>
+        <v>0.2474577095216186</v>
       </c>
       <c r="T9" t="n">
-        <v>12.87854896025435</v>
+        <v>10.97075373445326</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.585946401331457, 17.171151519177236]</t>
+          <t>[7.210196327546731, 14.731311141359798]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.698667567191393e-07</v>
+        <v>4.772404482711323e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>2.698667567191393e-07</v>
+        <v>4.772404482711323e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>18.79709709709731</v>
+        <v>16.9905105105107</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.99207207207221</v>
+        <v>5.560960960961019</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.60212212212242</v>
+        <v>28.42006006006037</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.77000000000028</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2849462290123931</v>
+        <v>0.2759473780195901</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2849462290123931</v>
+        <v>0.2759473780195901</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.338477937518284</v>
+        <v>5.675922114735779</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.9935577125865294, 11.670513587623098]</t>
+          <t>[-3.6110448091152536, 14.962889038586813]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2395966435668619</v>
+        <v>0.2247326585094769</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2395966435668619</v>
+        <v>0.2247326585094769</v>
       </c>
       <c r="P10" t="n">
-        <v>2.849132076228581</v>
+        <v>2.132131951084965</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.2515789912784623, 5.949843143735625]</t>
+          <t>[-0.9560001668581553, 5.220264069028085]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.07078551350211892</v>
+        <v>0.1711881812438343</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07078551350211892</v>
+        <v>0.1711881812438343</v>
       </c>
       <c r="T10" t="n">
-        <v>8.956006847301119</v>
+        <v>14.77329681076147</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.100313843024338, 12.811699851577899]</t>
+          <t>[9.82895540012349, 19.717638221399454]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.662266564268378e-05</v>
+        <v>2.93625310066048e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>2.662266564268378e-05</v>
+        <v>2.93625310066048e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>12.99141141141156</v>
+        <v>15.61801801801819</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.261071071071086</v>
+        <v>3.9991591591592</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.72175175175204</v>
+        <v>27.23687687687718</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.77000000000028</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07881951767834727</v>
+        <v>0.0546010044081694</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07881951767834727</v>
+        <v>0.0546010044081694</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.133429961160727</v>
+        <v>6.67263349576171</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.9062926975631225, 13.173152619884577]</t>
+          <t>[-0.37508066252562244, 13.720347654049043]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.08609907985371601</v>
+        <v>0.0629283266114613</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08609907985371601</v>
+        <v>0.0629283266114613</v>
       </c>
       <c r="P11" t="n">
-        <v>2.006342455445734</v>
+        <v>2.144710900648888</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.19497371824080822, 3.817711192650659]</t>
+          <t>[0.735868549489501, 3.5535532518082746]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.03071641546777859</v>
+        <v>0.003661265104452971</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03071641546777859</v>
+        <v>0.003661265104452971</v>
       </c>
       <c r="T11" t="n">
-        <v>10.6480182230082</v>
+        <v>10.84416905915412</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.900402941392731, 14.395633504623671]</t>
+          <t>[7.04506436805813, 14.643273750250101]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>8.044008066310226e-07</v>
+        <v>7.351667126176409e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>8.044008066310226e-07</v>
+        <v>7.351667126176409e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>16.17977977977997</v>
+        <v>15.57069069069086</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.327167167167278</v>
+        <v>10.27003003003014</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.03239239239266</v>
+        <v>20.87135135135158</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.77000000000028</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05755932982514989</v>
+        <v>0.8475273548689446</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05755932982514989</v>
+        <v>0.8475273548689446</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.709761425939946</v>
+        <v>1.836884734494288</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.13069300411091334, 13.550215855990805]</t>
+          <t>[-6.89762777549509, 10.571397244483668]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.05434922727349001</v>
+        <v>0.67389733531461</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05434922727349001</v>
+        <v>0.67389733531461</v>
       </c>
       <c r="P12" t="n">
-        <v>1.754763464167272</v>
+        <v>1.968605606753964</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.2956053147521933, 3.213921613582351]</t>
+          <t>[-1.1698423094448476, 5.107053522952775]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.01952032522537084</v>
+        <v>0.2129678462295745</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01952032522537084</v>
+        <v>0.2129678462295745</v>
       </c>
       <c r="T12" t="n">
-        <v>12.71787502585404</v>
+        <v>9.322835312005008</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.867043569889656, 16.56870648181842]</t>
+          <t>[4.8137395914920305, 13.831931032517986]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.351567645637488e-08</v>
+        <v>0.0001393731306911228</v>
       </c>
       <c r="W12" t="n">
-        <v>3.351567645637488e-08</v>
+        <v>0.0001393731306911228</v>
       </c>
       <c r="X12" t="n">
-        <v>17.13153153153173</v>
+        <v>16.23327327327345</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.6113713713715</v>
+        <v>4.425105105105162</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.65169169169195</v>
+        <v>28.04144144144175</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.77000000000028</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1204065632322225</v>
+        <v>0.2767652380863763</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1204065632322225</v>
+        <v>0.2767652380863763</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.492722245221623</v>
+        <v>5.067242120764266</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.7969828057589012, 12.782427296202147]</t>
+          <t>[-3.521274347374124, 13.655758588902657]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.13610799402365</v>
+        <v>0.2409391867187631</v>
       </c>
       <c r="O13" t="n">
-        <v>0.13610799402365</v>
+        <v>0.2409391867187631</v>
       </c>
       <c r="P13" t="n">
         <v>2.446605690183042</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.5786316799404627, 5.471843060306547]</t>
+          <t>[-0.6792632764518469, 5.572474656817931]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1103223997231608</v>
+        <v>0.1219314539099863</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1103223997231608</v>
+        <v>0.1219314539099863</v>
       </c>
       <c r="T13" t="n">
-        <v>11.47679023792635</v>
+        <v>11.47412241617896</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.765563218020004, 15.1880172578327]</t>
+          <t>[7.031436880880678, 15.916807951477237]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.428679019532808e-07</v>
+        <v>4.684523415177111e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.428679019532808e-07</v>
+        <v>4.684523415177111e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>14.51421421421438</v>
+        <v>14.43483483483499</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.069399399399432</v>
+        <v>2.673993993994024</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.95902902902933</v>
+        <v>26.19567567567596</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.77000000000028</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1433140936089161</v>
+        <v>0.11650281953154</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1433140936089161</v>
+        <v>0.11650281953154</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.174968526775837</v>
+        <v>6.110878347977889</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.9780093322977645, 12.327946385849438]</t>
+          <t>[-1.628642451602758, 13.850399147558536]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1520198100407577</v>
+        <v>0.1187753440218851</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1520198100407577</v>
+        <v>0.1187753440218851</v>
       </c>
       <c r="P14" t="n">
-        <v>2.320816194543811</v>
+        <v>2.685605731897581</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.798763297309117, 5.440395686396739]</t>
+          <t>[0.5346053564667321, 4.83660610732843]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1410133093895243</v>
+        <v>0.01555628544314414</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1410133093895243</v>
+        <v>0.01555628544314414</v>
       </c>
       <c r="T14" t="n">
-        <v>9.428542081932104</v>
+        <v>8.998244930792119</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.772815096185443, 13.084269067678765]</t>
+          <t>[4.885254899180154, 13.111234962404083]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.7994116159078e-06</v>
+        <v>6.440135595608965e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>4.7994116159078e-06</v>
+        <v>6.440135595608965e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>14.99009009009026</v>
+        <v>13.53561561561576</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.188368368368405</v>
+        <v>5.442642642642701</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.79181181181212</v>
+        <v>21.62858858858882</v>
       </c>
     </row>
   </sheetData>
